--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Toussaint_Marcel_de_Serres_de_Mesplès/Pierre_Toussaint_Marcel_de_Serres_de_Mesplès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Toussaint_Marcel_de_Serres_de_Mesplès/Pierre_Toussaint_Marcel_de_Serres_de_Mesplès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mespl%C3%A8s</t>
+          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mesplès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Toussaint Marcel de Serres de Mesplès est un géologue et un naturaliste français, né le 3 novembre 1780 à Montpellier et mort le 22 juillet 1862 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mespl%C3%A8s</t>
+          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mesplès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de droit, il devient en 1814 conseiller à la cour d’appel de Montpellier.  Par l'entremise du Montpelliérain Pierre Daru, Napoléon lui confie une mission en Autriche, au Tyrol et en Bavière : dès le 22 mai 1809, avec le titre d'Inspecteur des sciences, arts et manufactures de l'université impériale, il est envoyé en mission pour "visiter les manufactures des établissements de Vienne et des environs pour voir quels sont les perfectionnements que l'on peut apporter à celles déjà établies en France".
 Deux mois après, le 19 juillet 1809, Marcel de Serres est nommé professeur de minéralogie et de géologie à la Faculté des Sciences de Montpellier, inaugurant ainsi la première chaire de France consacrée à cette spécialité. Il s’intéresse à la présence d’ossements dans les grottes du sud de la France.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mespl%C3%A8s</t>
+          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mesplès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage en Autriche, ou essai statistique et géographique sur cet empire, etc.  (4 tomes, Paris, 1814).
 Autriche; ou mœurs, usages et costumes des habitans de cet Empire; suivi d'un Voyage en Bavière et au Tyrol, etc. (6 tomes, Paris, 1821).
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mespl%C3%A8s</t>
+          <t>Pierre_Toussaint_Marcel_de_Serres_de_Mesplès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.</t>
         </is>
